--- a/results/subnetworks/strongly_connected_components.xlsx
+++ b/results/subnetworks/strongly_connected_components.xlsx
@@ -27,172 +27,175 @@
     <t>genes</t>
   </si>
   <si>
+    <t>NDC80</t>
+  </si>
+  <si>
+    <t>BRCA1</t>
+  </si>
+  <si>
+    <t>DTX4</t>
+  </si>
+  <si>
+    <t>PSMD6</t>
+  </si>
+  <si>
+    <t>GLE1</t>
+  </si>
+  <si>
     <t>FAM43A</t>
   </si>
   <si>
-    <t>NDC80</t>
-  </si>
-  <si>
-    <t>PSMD6</t>
-  </si>
-  <si>
-    <t>DTX4</t>
-  </si>
-  <si>
-    <t>GLE1</t>
-  </si>
-  <si>
-    <t>BRCA1</t>
+    <t>TXNDC17</t>
+  </si>
+  <si>
+    <t>EMC2</t>
+  </si>
+  <si>
+    <t>POMP</t>
+  </si>
+  <si>
+    <t>GLRX2</t>
+  </si>
+  <si>
+    <t>VPS29</t>
   </si>
   <si>
     <t>NDUFB6</t>
   </si>
   <si>
-    <t>VPS29</t>
-  </si>
-  <si>
-    <t>GLRX2</t>
-  </si>
-  <si>
-    <t>TXNDC17</t>
-  </si>
-  <si>
-    <t>EMC2</t>
+    <t>PSMA4</t>
   </si>
   <si>
     <t>BLCAP</t>
   </si>
   <si>
-    <t>POMP</t>
-  </si>
-  <si>
-    <t>PSMA4</t>
+    <t>FBLN2</t>
+  </si>
+  <si>
+    <t>LMNB1</t>
+  </si>
+  <si>
+    <t>UBE2K</t>
+  </si>
+  <si>
+    <t>TRIM69</t>
+  </si>
+  <si>
+    <t>CACHD1</t>
+  </si>
+  <si>
+    <t>HSPA5</t>
+  </si>
+  <si>
+    <t>ID3</t>
+  </si>
+  <si>
+    <t>SUB1</t>
+  </si>
+  <si>
+    <t>DNAJC1</t>
+  </si>
+  <si>
+    <t>SPOCK2</t>
+  </si>
+  <si>
+    <t>COPB2</t>
+  </si>
+  <si>
+    <t>TXNL1</t>
+  </si>
+  <si>
+    <t>DECR1</t>
+  </si>
+  <si>
+    <t>THRA</t>
+  </si>
+  <si>
+    <t>AIM2</t>
+  </si>
+  <si>
+    <t>TRMT1L</t>
+  </si>
+  <si>
+    <t>ZNF517</t>
+  </si>
+  <si>
+    <t>AMIGO1</t>
+  </si>
+  <si>
+    <t>PLAA</t>
+  </si>
+  <si>
+    <t>EPPK1</t>
+  </si>
+  <si>
+    <t>ZNF740</t>
+  </si>
+  <si>
+    <t>MAP3K14</t>
+  </si>
+  <si>
+    <t>RMI2</t>
+  </si>
+  <si>
+    <t>NDUFB3</t>
+  </si>
+  <si>
+    <t>RNF216</t>
+  </si>
+  <si>
+    <t>STMN3</t>
   </si>
   <si>
     <t>PPP1R13B</t>
   </si>
   <si>
+    <t>HIST1H2AG</t>
+  </si>
+  <si>
+    <t>NRCAM</t>
+  </si>
+  <si>
     <t>CCDC130</t>
   </si>
   <si>
-    <t>RNF216</t>
-  </si>
-  <si>
-    <t>TRIM69</t>
-  </si>
-  <si>
-    <t>STMN3</t>
-  </si>
-  <si>
-    <t>SUB1</t>
+    <t>COPA</t>
+  </si>
+  <si>
+    <t>GIGYF1</t>
+  </si>
+  <si>
+    <t>UBE2A</t>
   </si>
   <si>
     <t>FBRSL1</t>
   </si>
   <si>
-    <t>TRMT1L</t>
-  </si>
-  <si>
-    <t>UBE2K</t>
+    <t>CRTC1</t>
+  </si>
+  <si>
+    <t>NAB2</t>
+  </si>
+  <si>
+    <t>MMADHC</t>
   </si>
   <si>
     <t>DBP</t>
   </si>
   <si>
-    <t>CRTC1</t>
-  </si>
-  <si>
-    <t>ZNF517</t>
-  </si>
-  <si>
-    <t>PLAA</t>
-  </si>
-  <si>
-    <t>FBLN2</t>
-  </si>
-  <si>
-    <t>ZNF740</t>
-  </si>
-  <si>
-    <t>HSPA5</t>
-  </si>
-  <si>
-    <t>NAB2</t>
-  </si>
-  <si>
-    <t>MAP3K14</t>
-  </si>
-  <si>
-    <t>RMI2</t>
-  </si>
-  <si>
-    <t>EPPK1</t>
-  </si>
-  <si>
-    <t>DNAJC1</t>
-  </si>
-  <si>
-    <t>GIGYF1</t>
-  </si>
-  <si>
-    <t>UBE2A</t>
+    <t>AP3B1</t>
+  </si>
+  <si>
+    <t>BRCA2</t>
+  </si>
+  <si>
+    <t>HIST1H2BO</t>
   </si>
   <si>
     <t>GYG1</t>
   </si>
   <si>
-    <t>COPA</t>
-  </si>
-  <si>
-    <t>AP3B1</t>
-  </si>
-  <si>
-    <t>AMIGO1</t>
-  </si>
-  <si>
-    <t>DECR1</t>
-  </si>
-  <si>
-    <t>ID3</t>
-  </si>
-  <si>
-    <t>CACHD1</t>
-  </si>
-  <si>
-    <t>AIM2</t>
-  </si>
-  <si>
-    <t>BRCA2</t>
-  </si>
-  <si>
-    <t>MMADHC</t>
-  </si>
-  <si>
-    <t>COPB2</t>
-  </si>
-  <si>
-    <t>THRA</t>
-  </si>
-  <si>
-    <t>NDUFB3</t>
-  </si>
-  <si>
-    <t>NRCAM</t>
-  </si>
-  <si>
-    <t>HIST1H2BO</t>
-  </si>
-  <si>
-    <t>LMNB1</t>
-  </si>
-  <si>
-    <t>TXNL1</t>
-  </si>
-  <si>
-    <t>SPOCK2</t>
-  </si>
-  <si>
-    <t>HIST1H2AG</t>
+    <t>FMNL3</t>
   </si>
   <si>
     <t>RPL13</t>
@@ -201,7 +204,13 @@
     <t>NOG</t>
   </si>
   <si>
-    <t>FMNL3</t>
+    <t>ACKR3</t>
+  </si>
+  <si>
+    <t>PCMT1</t>
+  </si>
+  <si>
+    <t>DERL2</t>
   </si>
   <si>
     <t>ANXA1</t>
@@ -210,31 +219,22 @@
     <t>UBE2F</t>
   </si>
   <si>
-    <t>ACKR3</t>
-  </si>
-  <si>
-    <t>DERL2</t>
-  </si>
-  <si>
-    <t>PCMT1</t>
-  </si>
-  <si>
     <t>LDB1</t>
   </si>
   <si>
+    <t>CEP162</t>
+  </si>
+  <si>
     <t>TMEM259</t>
   </si>
   <si>
-    <t>CEP162</t>
-  </si>
-  <si>
     <t>DCHS1</t>
   </si>
   <si>
+    <t>POLD3</t>
+  </si>
+  <si>
     <t>N4BP3</t>
-  </si>
-  <si>
-    <t>POLD3</t>
   </si>
   <si>
     <t>FBXL12</t>
@@ -733,187 +733,187 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -923,42 +923,42 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -981,12 +981,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -996,12 +996,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1034,12 +1034,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1049,17 +1049,17 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1069,7 +1069,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -1079,7 +1079,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1102,32 +1102,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1150,17 +1150,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -1170,17 +1170,17 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1203,27 +1203,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1233,67 +1233,67 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -1303,12 +1303,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1331,42 +1331,42 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
